--- a/test/xl_transform/writer_test/test_data/FileWriter/excel/WriteDataIntoTwoSheet/Result.xlsx
+++ b/test/xl_transform/writer_test/test_data/FileWriter/excel/WriteDataIntoTwoSheet/Result.xlsx
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:P19"/>
+  <dimension ref="C3:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,42 +516,6 @@
       <c r="E13" s="1">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -564,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D17:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
